--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9b1373fe72a1664/Área de Trabalho/GITHUB/BAF_eco_strategies/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauane Bordin\OneDrive\Área de Trabalho\GITHUB\BAF_eco_strategies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6F3A9D-1E5F-4F6C-9692-AAECD3B8146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446CD28C-4A49-4FBE-BA00-7DFC01442CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{888524B4-099A-481A-A338-D6179132EA33}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Species.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> individual code for each species based on the scientific name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Species</t>
   </si>
@@ -512,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B280754F-AC57-4891-9623-3557CE283D69}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,15 +517,15 @@
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -547,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -555,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -563,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -571,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -579,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -587,7 +581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -595,7 +589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -603,7 +597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -611,7 +605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -619,7 +613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -627,7 +621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -635,7 +629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -643,23 +637,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
